--- a/natmiOut/OldD2/LR-pairs_lrc2p/Cck-Cckar.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Cck-Cckar.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,6 +95,9 @@
   </si>
   <si>
     <t>Cckar</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -446,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,185 +528,1239 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.925384895051783</v>
+        <v>1.5527735</v>
       </c>
       <c r="H2">
-        <v>0.925384895051783</v>
+        <v>3.105547</v>
       </c>
       <c r="I2">
-        <v>0.2473758925760159</v>
+        <v>0.298911854116411</v>
       </c>
       <c r="J2">
-        <v>0.2473758925760159</v>
+        <v>0.2609953829182599</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.626764941895062</v>
+        <v>0.7748083333333334</v>
       </c>
       <c r="N2">
-        <v>0.626764941895062</v>
+        <v>2.324425</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.763512170766838</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.7846817218791649</v>
       </c>
       <c r="Q2">
-        <v>0.5799988099776988</v>
+        <v>1.203101847579167</v>
       </c>
       <c r="R2">
-        <v>0.5799988099776988</v>
+        <v>7.218611085475001</v>
       </c>
       <c r="S2">
-        <v>0.2473758925760159</v>
+        <v>0.2282228386043613</v>
       </c>
       <c r="T2">
-        <v>0.2473758925760159</v>
+        <v>0.2047983064708121</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.68712832572413</v>
+        <v>1.5527735</v>
       </c>
       <c r="H3">
-        <v>0.68712832572413</v>
+        <v>3.105547</v>
       </c>
       <c r="I3">
-        <v>0.1836846309024293</v>
+        <v>0.298911854116411</v>
       </c>
       <c r="J3">
-        <v>0.1836846309024293</v>
+        <v>0.2609953829182599</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.626764941895062</v>
+        <v>0.08040633333333333</v>
       </c>
       <c r="N3">
-        <v>0.626764941895062</v>
+        <v>0.241219</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.07923406533667718</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.08143095185689805</v>
       </c>
       <c r="Q3">
-        <v>0.4306679451469356</v>
+        <v>0.1248528236321667</v>
       </c>
       <c r="R3">
-        <v>0.4306679451469356</v>
+        <v>0.7491169417929999</v>
       </c>
       <c r="S3">
-        <v>0.1836846309024293</v>
+        <v>0.02368400137896702</v>
       </c>
       <c r="T3">
-        <v>0.1836846309024293</v>
+        <v>0.02125310246128949</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1.5527735</v>
+      </c>
+      <c r="H4">
+        <v>3.105547</v>
+      </c>
+      <c r="I4">
+        <v>0.298911854116411</v>
+      </c>
+      <c r="J4">
+        <v>0.2609953829182599</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.07744733333333333</v>
+      </c>
+      <c r="N4">
+        <v>0.232342</v>
+      </c>
+      <c r="O4">
+        <v>0.07631820548320924</v>
+      </c>
+      <c r="P4">
+        <v>0.07843424529715905</v>
+      </c>
+      <c r="Q4">
+        <v>0.1202581668456667</v>
+      </c>
+      <c r="R4">
+        <v>0.721549001074</v>
+      </c>
+      <c r="S4">
+        <v>0.02281241630382332</v>
+      </c>
+      <c r="T4">
+        <v>0.02047097588523675</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1.5527735</v>
+      </c>
+      <c r="H5">
+        <v>3.105547</v>
+      </c>
+      <c r="I5">
+        <v>0.298911854116411</v>
+      </c>
+      <c r="J5">
+        <v>0.2609953829182599</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.5</v>
+      </c>
+      <c r="M5">
+        <v>0.082133</v>
+      </c>
+      <c r="N5">
+        <v>0.164266</v>
+      </c>
+      <c r="O5">
+        <v>0.08093555841327557</v>
+      </c>
+      <c r="P5">
+        <v>0.05545308096677797</v>
+      </c>
+      <c r="Q5">
+        <v>0.1275339458755</v>
+      </c>
+      <c r="R5">
+        <v>0.510135783502</v>
+      </c>
+      <c r="S5">
+        <v>0.02419259782925929</v>
+      </c>
+      <c r="T5">
+        <v>0.01447299810092148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.948302</v>
+      </c>
+      <c r="H6">
+        <v>2.844906</v>
+      </c>
+      <c r="I6">
+        <v>0.1825499398864681</v>
+      </c>
+      <c r="J6">
+        <v>0.2390906757606486</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.7748083333333334</v>
+      </c>
+      <c r="N6">
+        <v>2.324425</v>
+      </c>
+      <c r="O6">
+        <v>0.763512170766838</v>
+      </c>
+      <c r="P6">
+        <v>0.7846817218791649</v>
+      </c>
+      <c r="Q6">
+        <v>0.7347522921166667</v>
+      </c>
+      <c r="R6">
+        <v>6.612770629050001</v>
+      </c>
+      <c r="S6">
+        <v>0.1393791008760731</v>
+      </c>
+      <c r="T6">
+        <v>0.1876100831411188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.948302</v>
+      </c>
+      <c r="H7">
+        <v>2.844906</v>
+      </c>
+      <c r="I7">
+        <v>0.1825499398864681</v>
+      </c>
+      <c r="J7">
+        <v>0.2390906757606486</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.08040633333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.241219</v>
+      </c>
+      <c r="O7">
+        <v>0.07923406533667718</v>
+      </c>
+      <c r="P7">
+        <v>0.08143095185689805</v>
+      </c>
+      <c r="Q7">
+        <v>0.07624948671266667</v>
+      </c>
+      <c r="R7">
+        <v>0.686245380414</v>
+      </c>
+      <c r="S7">
+        <v>0.01446417386417091</v>
+      </c>
+      <c r="T7">
+        <v>0.0194693813072986</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.948302</v>
+      </c>
+      <c r="H8">
+        <v>2.844906</v>
+      </c>
+      <c r="I8">
+        <v>0.1825499398864681</v>
+      </c>
+      <c r="J8">
+        <v>0.2390906757606486</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.07744733333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.232342</v>
+      </c>
+      <c r="O8">
+        <v>0.07631820548320924</v>
+      </c>
+      <c r="P8">
+        <v>0.07843424529715905</v>
+      </c>
+      <c r="Q8">
+        <v>0.07344346109466666</v>
+      </c>
+      <c r="R8">
+        <v>0.6609911498519999</v>
+      </c>
+      <c r="S8">
+        <v>0.01393188382320297</v>
+      </c>
+      <c r="T8">
+        <v>0.01875289671087423</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.948302</v>
+      </c>
+      <c r="H9">
+        <v>2.844906</v>
+      </c>
+      <c r="I9">
+        <v>0.1825499398864681</v>
+      </c>
+      <c r="J9">
+        <v>0.2390906757606486</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.5</v>
+      </c>
+      <c r="M9">
+        <v>0.082133</v>
+      </c>
+      <c r="N9">
+        <v>0.164266</v>
+      </c>
+      <c r="O9">
+        <v>0.08093555841327557</v>
+      </c>
+      <c r="P9">
+        <v>0.05545308096677797</v>
+      </c>
+      <c r="Q9">
+        <v>0.07788688816599999</v>
+      </c>
+      <c r="R9">
+        <v>0.467321328996</v>
+      </c>
+      <c r="S9">
+        <v>0.01477478132302119</v>
+      </c>
+      <c r="T9">
+        <v>0.01325831460135691</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.1819486666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.5458460000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.03502546463302095</v>
+      </c>
+      <c r="J10">
+        <v>0.04587381410888339</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.7748083333333334</v>
+      </c>
+      <c r="N10">
+        <v>2.324425</v>
+      </c>
+      <c r="O10">
+        <v>0.763512170766838</v>
+      </c>
+      <c r="P10">
+        <v>0.7846817218791649</v>
+      </c>
+      <c r="Q10">
+        <v>0.1409753431722222</v>
+      </c>
+      <c r="R10">
+        <v>1.26877808855</v>
+      </c>
+      <c r="S10">
+        <v>0.02674236853407493</v>
+      </c>
+      <c r="T10">
+        <v>0.03599634344412335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.1819486666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.5458460000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.03502546463302095</v>
+      </c>
+      <c r="J11">
+        <v>0.04587381410888339</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.08040633333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.241219</v>
+      </c>
+      <c r="O11">
+        <v>0.07923406533667718</v>
+      </c>
+      <c r="P11">
+        <v>0.08143095185689805</v>
+      </c>
+      <c r="Q11">
+        <v>0.01462982514155556</v>
+      </c>
+      <c r="R11">
+        <v>0.131668426274</v>
+      </c>
+      <c r="S11">
+        <v>0.002775209953180258</v>
+      </c>
+      <c r="T11">
+        <v>0.003735548348192775</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.1819486666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.5458460000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.03502546463302095</v>
+      </c>
+      <c r="J12">
+        <v>0.04587381410888339</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.07744733333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.232342</v>
+      </c>
+      <c r="O12">
+        <v>0.07631820548320924</v>
+      </c>
+      <c r="P12">
+        <v>0.07843424529715905</v>
+      </c>
+      <c r="Q12">
+        <v>0.01409143903688889</v>
+      </c>
+      <c r="R12">
+        <v>0.126822951332</v>
+      </c>
+      <c r="S12">
+        <v>0.00267308060700777</v>
+      </c>
+      <c r="T12">
+        <v>0.003598077988532436</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.1819486666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.5458460000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.03502546463302095</v>
+      </c>
+      <c r="J13">
+        <v>0.04587381410888339</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.5</v>
+      </c>
+      <c r="M13">
+        <v>0.082133</v>
+      </c>
+      <c r="N13">
+        <v>0.164266</v>
+      </c>
+      <c r="O13">
+        <v>0.08093555841327557</v>
+      </c>
+      <c r="P13">
+        <v>0.05545308096677797</v>
+      </c>
+      <c r="Q13">
+        <v>0.01494398983933333</v>
+      </c>
+      <c r="R13">
+        <v>0.08966393903600001</v>
+      </c>
+      <c r="S13">
+        <v>0.002834805538757985</v>
+      </c>
+      <c r="T13">
+        <v>0.002543844328034832</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.3790996666666667</v>
+      </c>
+      <c r="H14">
+        <v>1.137299</v>
+      </c>
+      <c r="I14">
+        <v>0.07297740736704142</v>
+      </c>
+      <c r="J14">
+        <v>0.09558051705466189</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.7748083333333334</v>
+      </c>
+      <c r="N14">
+        <v>2.324425</v>
+      </c>
+      <c r="O14">
+        <v>0.763512170766838</v>
+      </c>
+      <c r="P14">
+        <v>0.7846817218791649</v>
+      </c>
+      <c r="Q14">
+        <v>0.2937295808972223</v>
+      </c>
+      <c r="R14">
+        <v>2.643566228075001</v>
+      </c>
+      <c r="S14">
+        <v>0.05571913871574563</v>
+      </c>
+      <c r="T14">
+        <v>0.07500028470055298</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.3790996666666667</v>
+      </c>
+      <c r="H15">
+        <v>1.137299</v>
+      </c>
+      <c r="I15">
+        <v>0.07297740736704142</v>
+      </c>
+      <c r="J15">
+        <v>0.09558051705466189</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.08040633333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.241219</v>
+      </c>
+      <c r="O15">
+        <v>0.07923406533667718</v>
+      </c>
+      <c r="P15">
+        <v>0.08143095185689805</v>
+      </c>
+      <c r="Q15">
+        <v>0.03048201416455555</v>
+      </c>
+      <c r="R15">
+        <v>0.274338127481</v>
+      </c>
+      <c r="S15">
+        <v>0.005782296663421466</v>
+      </c>
+      <c r="T15">
+        <v>0.007783212482735596</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.3790996666666667</v>
+      </c>
+      <c r="H16">
+        <v>1.137299</v>
+      </c>
+      <c r="I16">
+        <v>0.07297740736704142</v>
+      </c>
+      <c r="J16">
+        <v>0.09558051705466189</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.07744733333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.232342</v>
+      </c>
+      <c r="O16">
+        <v>0.07631820548320924</v>
+      </c>
+      <c r="P16">
+        <v>0.07843424529715905</v>
+      </c>
+      <c r="Q16">
+        <v>0.02936025825088889</v>
+      </c>
+      <c r="R16">
+        <v>0.264242324258</v>
+      </c>
+      <c r="S16">
+        <v>0.005569504771069734</v>
+      </c>
+      <c r="T16">
+        <v>0.007496785720294645</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.3790996666666667</v>
+      </c>
+      <c r="H17">
+        <v>1.137299</v>
+      </c>
+      <c r="I17">
+        <v>0.07297740736704142</v>
+      </c>
+      <c r="J17">
+        <v>0.09558051705466189</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.5</v>
+      </c>
+      <c r="M17">
+        <v>0.082133</v>
+      </c>
+      <c r="N17">
+        <v>0.164266</v>
+      </c>
+      <c r="O17">
+        <v>0.08093555841327557</v>
+      </c>
+      <c r="P17">
+        <v>0.05545308096677797</v>
+      </c>
+      <c r="Q17">
+        <v>0.03113659292233333</v>
+      </c>
+      <c r="R17">
+        <v>0.186819557534</v>
+      </c>
+      <c r="S17">
+        <v>0.005906467216804588</v>
+      </c>
+      <c r="T17">
+        <v>0.005300234151078669</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>2.12829145269251</v>
-      </c>
-      <c r="H4">
-        <v>2.12829145269251</v>
-      </c>
-      <c r="I4">
-        <v>0.5689394765215547</v>
-      </c>
-      <c r="J4">
-        <v>0.5689394765215547</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0.626764941895062</v>
-      </c>
-      <c r="N4">
-        <v>0.626764941895062</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>1.333938468682578</v>
-      </c>
-      <c r="R4">
-        <v>1.333938468682578</v>
-      </c>
-      <c r="S4">
-        <v>0.5689394765215547</v>
-      </c>
-      <c r="T4">
-        <v>0.5689394765215547</v>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2.13263</v>
+      </c>
+      <c r="H18">
+        <v>4.26526</v>
+      </c>
+      <c r="I18">
+        <v>0.4105353339970585</v>
+      </c>
+      <c r="J18">
+        <v>0.3584596101575462</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.7748083333333334</v>
+      </c>
+      <c r="N18">
+        <v>2.324425</v>
+      </c>
+      <c r="O18">
+        <v>0.763512170766838</v>
+      </c>
+      <c r="P18">
+        <v>0.7846817218791649</v>
+      </c>
+      <c r="Q18">
+        <v>1.652379495916667</v>
+      </c>
+      <c r="R18">
+        <v>9.914276975500002</v>
+      </c>
+      <c r="S18">
+        <v>0.313448724036583</v>
+      </c>
+      <c r="T18">
+        <v>0.2812767041225576</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2.13263</v>
+      </c>
+      <c r="H19">
+        <v>4.26526</v>
+      </c>
+      <c r="I19">
+        <v>0.4105353339970585</v>
+      </c>
+      <c r="J19">
+        <v>0.3584596101575462</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.08040633333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.241219</v>
+      </c>
+      <c r="O19">
+        <v>0.07923406533667718</v>
+      </c>
+      <c r="P19">
+        <v>0.08143095185689805</v>
+      </c>
+      <c r="Q19">
+        <v>0.1714769586566667</v>
+      </c>
+      <c r="R19">
+        <v>1.02886175194</v>
+      </c>
+      <c r="S19">
+        <v>0.03252838347693753</v>
+      </c>
+      <c r="T19">
+        <v>0.02918970725738159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2.13263</v>
+      </c>
+      <c r="H20">
+        <v>4.26526</v>
+      </c>
+      <c r="I20">
+        <v>0.4105353339970585</v>
+      </c>
+      <c r="J20">
+        <v>0.3584596101575462</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.07744733333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.232342</v>
+      </c>
+      <c r="O20">
+        <v>0.07631820548320924</v>
+      </c>
+      <c r="P20">
+        <v>0.07843424529715905</v>
+      </c>
+      <c r="Q20">
+        <v>0.1651665064866667</v>
+      </c>
+      <c r="R20">
+        <v>0.9909990389200001</v>
+      </c>
+      <c r="S20">
+        <v>0.03133131997810545</v>
+      </c>
+      <c r="T20">
+        <v>0.02811550899222099</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.13263</v>
+      </c>
+      <c r="H21">
+        <v>4.26526</v>
+      </c>
+      <c r="I21">
+        <v>0.4105353339970585</v>
+      </c>
+      <c r="J21">
+        <v>0.3584596101575462</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>0.082133</v>
+      </c>
+      <c r="N21">
+        <v>0.164266</v>
+      </c>
+      <c r="O21">
+        <v>0.08093555841327557</v>
+      </c>
+      <c r="P21">
+        <v>0.05545308096677797</v>
+      </c>
+      <c r="Q21">
+        <v>0.17515929979</v>
+      </c>
+      <c r="R21">
+        <v>0.7006371991600001</v>
+      </c>
+      <c r="S21">
+        <v>0.03322690650543253</v>
+      </c>
+      <c r="T21">
+        <v>0.01987768978538608</v>
       </c>
     </row>
   </sheetData>
